--- a/resources/balancesheet_excercise.xlsx
+++ b/resources/balancesheet_excercise.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niyanshi/OneDrive/personal/learn/financial_statetment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46aefa70b467855c/personal_projects/financial-modeling/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A03EB3-1F3E-C747-A4DC-49D16197AF72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_F4F6ADDCB76266C412254B92F17CBF38477E130E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8240" yWindow="3840" windowWidth="30160" windowHeight="19180" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6400" yWindow="4460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="How to Complete this Exercise" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t xml:space="preserve">  Accounts payable</t>
   </si>
@@ -333,9 +333,6 @@
   </si>
   <si>
     <t xml:space="preserve">Material decrease in net income (was $375,750k in previous year). </t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -540,7 +537,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -804,6 +801,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1134,8 +1143,8 @@
   </sheetPr>
   <dimension ref="B1:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A8" zoomScale="173" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:F21"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="173" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -1167,11 +1176,11 @@
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="39" t="s">
@@ -1485,11 +1494,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:P35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="139" zoomScaleNormal="192" zoomScalePageLayoutView="192" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="139" zoomScaleNormal="192" zoomScalePageLayoutView="192" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L33" sqref="L33"/>
+      <selection pane="bottomRight" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -1512,13 +1521,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
       <c r="I1" s="3"/>
@@ -1575,112 +1584,80 @@
       <c r="I4" s="3"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="2:16" ht="18">
-      <c r="B5" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="29">
-        <v>600000</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="29">
-        <v>301500</v>
-      </c>
+    <row r="5" spans="2:16">
+      <c r="B5" s="74"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="3"/>
       <c r="H5" s="46">
         <f>F5-D5</f>
-        <v>-298500</v>
+        <v>0</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="47">
+      <c r="J5" s="47" t="str">
         <f t="shared" ref="J5:J9" si="0">IFERROR(F5/D5-1,"N/A")</f>
-        <v>-0.49750000000000005</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>17</v>
-      </c>
+        <v>N/A</v>
+      </c>
+      <c r="L5" s="27"/>
       <c r="M5" s="33"/>
     </row>
-    <row r="6" spans="2:16" ht="18">
-      <c r="B6" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="29">
-        <v>230000</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="29">
-        <v>400000</v>
-      </c>
+    <row r="6" spans="2:16">
+      <c r="B6" s="74"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="30"/>
       <c r="H6" s="46">
         <f t="shared" ref="H6:H16" si="1">F6-D6</f>
-        <v>170000</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="47">
+      <c r="J6" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>0.73913043478260865</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>58</v>
-      </c>
+        <v>N/A</v>
+      </c>
+      <c r="L6" s="27"/>
       <c r="M6" s="33"/>
     </row>
-    <row r="7" spans="2:16" ht="18">
-      <c r="B7" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="29">
-        <v>900000</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="29">
-        <v>900000</v>
-      </c>
+    <row r="7" spans="2:16">
+      <c r="B7" s="74"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="30"/>
       <c r="H7" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="47">
+      <c r="J7" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>58</v>
-      </c>
+        <v>N/A</v>
+      </c>
+      <c r="L7" s="27"/>
       <c r="M7" s="33"/>
     </row>
-    <row r="8" spans="2:16" ht="18">
-      <c r="B8" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="29">
-        <v>45000</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="29">
-        <v>692125</v>
-      </c>
+    <row r="8" spans="2:16">
+      <c r="B8" s="74"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="30"/>
       <c r="H8" s="46">
         <f t="shared" si="1"/>
-        <v>647125</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="47">
+      <c r="J8" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>14.380555555555556</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>17</v>
-      </c>
+        <v>N/A</v>
+      </c>
+      <c r="L8" s="27"/>
       <c r="M8" s="33"/>
     </row>
     <row r="9" spans="2:16" s="17" customFormat="1">
@@ -1690,22 +1667,22 @@
       <c r="C9" s="50"/>
       <c r="D9" s="51">
         <f>SUM(D5:D8)</f>
-        <v>1775000</v>
+        <v>0</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="51">
         <f>SUM(F5:F8)</f>
-        <v>2293625</v>
+        <v>0</v>
       </c>
       <c r="G9" s="31"/>
       <c r="H9" s="51">
         <f t="shared" si="1"/>
-        <v>518625</v>
+        <v>0</v>
       </c>
       <c r="I9" s="42"/>
-      <c r="J9" s="52">
+      <c r="J9" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>0.29218309859154923</v>
+        <v>N/A</v>
       </c>
       <c r="K9" s="26"/>
       <c r="L9" s="25"/>
@@ -1738,32 +1715,24 @@
       <c r="I11" s="3"/>
       <c r="J11" s="54"/>
     </row>
-    <row r="12" spans="2:16" s="19" customFormat="1" ht="18">
-      <c r="B12" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="29">
-        <v>95000</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="29">
-        <v>90000</v>
-      </c>
+    <row r="12" spans="2:16" s="19" customFormat="1">
+      <c r="B12" s="74"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="76"/>
       <c r="G12" s="30"/>
       <c r="H12" s="46">
         <f t="shared" si="1"/>
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="I12" s="30"/>
-      <c r="J12" s="47">
+      <c r="J12" s="47" t="str">
         <f>IFERROR(F12/D12-1,"N/A")</f>
-        <v>-5.2631578947368474E-2</v>
+        <v>N/A</v>
       </c>
       <c r="K12" s="25"/>
-      <c r="L12" s="27" t="s">
-        <v>58</v>
-      </c>
+      <c r="L12" s="27"/>
       <c r="M12" s="33"/>
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
@@ -1793,9 +1762,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="25"/>
-      <c r="L13" s="25" t="s">
-        <v>58</v>
-      </c>
+      <c r="L13" s="25"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
@@ -1825,9 +1792,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="25"/>
-      <c r="L14" s="25" t="s">
-        <v>58</v>
-      </c>
+      <c r="L14" s="25"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
@@ -1840,27 +1805,25 @@
       <c r="C15" s="50"/>
       <c r="D15" s="51">
         <f>SUM(D12:D14)</f>
-        <v>170000</v>
+        <v>75000</v>
       </c>
       <c r="E15" s="31"/>
       <c r="F15" s="51">
         <f>SUM(F12:F14)</f>
-        <v>165000</v>
+        <v>75000</v>
       </c>
       <c r="G15" s="31"/>
       <c r="H15" s="51">
         <f t="shared" si="1"/>
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="I15" s="42"/>
       <c r="J15" s="52">
         <f>IFERROR(F15/D15-1,"N/A")</f>
-        <v>-2.9411764705882359E-2</v>
+        <v>0</v>
       </c>
       <c r="K15" s="26"/>
-      <c r="L15" s="25" t="s">
-        <v>58</v>
-      </c>
+      <c r="L15" s="25"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
@@ -1873,27 +1836,25 @@
       <c r="C16" s="50"/>
       <c r="D16" s="57">
         <f>D9+D15</f>
-        <v>1945000</v>
+        <v>75000</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="57">
         <f>F9+F15</f>
-        <v>2458625</v>
+        <v>75000</v>
       </c>
       <c r="G16" s="31"/>
       <c r="H16" s="57">
         <f t="shared" si="1"/>
-        <v>513625</v>
+        <v>0</v>
       </c>
       <c r="I16" s="42"/>
       <c r="J16" s="58">
         <f>IFERROR(F16/D16-1,"N/A")</f>
-        <v>0.26407455012853465</v>
+        <v>0</v>
       </c>
       <c r="K16" s="26"/>
-      <c r="L16" s="25" t="s">
-        <v>17</v>
-      </c>
+      <c r="L16" s="25"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
       <c r="O16" s="26"/>
@@ -1936,58 +1897,42 @@
       <c r="I19" s="3"/>
       <c r="J19" s="60"/>
     </row>
-    <row r="20" spans="2:16" ht="18">
-      <c r="B20" s="32" t="s">
-        <v>20</v>
-      </c>
+    <row r="20" spans="2:16">
+      <c r="B20" s="75"/>
       <c r="C20" s="45"/>
-      <c r="D20" s="29">
-        <v>35000</v>
-      </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="29">
-        <v>50000</v>
-      </c>
+      <c r="D20" s="76"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="76"/>
       <c r="G20" s="30"/>
       <c r="H20" s="46">
         <f t="shared" ref="H20:H32" si="2">F20-D20</f>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3"/>
-      <c r="J20" s="59">
+      <c r="J20" s="59" t="str">
         <f t="shared" ref="J20:J22" si="3">IFERROR(F20/D20-1,"N/A")</f>
-        <v>0.4285714285714286</v>
-      </c>
-      <c r="L20" s="27" t="s">
-        <v>17</v>
-      </c>
+        <v>N/A</v>
+      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="33"/>
     </row>
-    <row r="21" spans="2:16" ht="18">
-      <c r="B21" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="29">
-        <v>89250</v>
-      </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="29">
-        <v>120000</v>
-      </c>
+    <row r="21" spans="2:16">
+      <c r="B21" s="74"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="76"/>
       <c r="G21" s="30"/>
       <c r="H21" s="46">
         <f t="shared" si="2"/>
-        <v>30750</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3"/>
-      <c r="J21" s="59">
+      <c r="J21" s="59" t="str">
         <f t="shared" si="3"/>
-        <v>0.34453781512605053</v>
-      </c>
-      <c r="L21" s="27" t="s">
-        <v>17</v>
-      </c>
+        <v>N/A</v>
+      </c>
+      <c r="L21" s="27"/>
       <c r="M21" s="33"/>
     </row>
     <row r="22" spans="2:16" s="17" customFormat="1">
@@ -1997,27 +1942,25 @@
       <c r="C22" s="50"/>
       <c r="D22" s="51">
         <f>D21+D20</f>
-        <v>124250</v>
+        <v>0</v>
       </c>
       <c r="E22" s="31"/>
       <c r="F22" s="51">
         <f>F21+F20</f>
-        <v>170000</v>
+        <v>0</v>
       </c>
       <c r="G22" s="31"/>
       <c r="H22" s="51">
         <f t="shared" si="2"/>
-        <v>45750</v>
+        <v>0</v>
       </c>
       <c r="I22" s="42"/>
-      <c r="J22" s="61">
+      <c r="J22" s="61" t="str">
         <f t="shared" si="3"/>
-        <v>0.36820925553319928</v>
+        <v>N/A</v>
       </c>
       <c r="K22" s="26"/>
-      <c r="L22" s="25" t="s">
-        <v>17</v>
-      </c>
+      <c r="L22" s="25"/>
       <c r="M22" s="26"/>
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
@@ -2053,31 +1996,23 @@
       <c r="I24" s="3"/>
       <c r="J24" s="60"/>
     </row>
-    <row r="25" spans="2:16" ht="18">
-      <c r="B25" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="29">
-        <v>900000</v>
-      </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="29">
-        <v>1200000</v>
-      </c>
+    <row r="25" spans="2:16">
+      <c r="B25" s="74"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="76"/>
       <c r="G25" s="30"/>
       <c r="H25" s="46">
         <f t="shared" si="2"/>
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="59">
+      <c r="J25" s="59" t="str">
         <f>IFERROR(F25/D25-1,"N/A")</f>
-        <v>0.33333333333333326</v>
-      </c>
-      <c r="L25" s="27" t="s">
-        <v>17</v>
-      </c>
+        <v>N/A</v>
+      </c>
+      <c r="L25" s="27"/>
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="2:16" s="17" customFormat="1" ht="17" thickBot="1">
@@ -2087,27 +2022,25 @@
       <c r="C26" s="50"/>
       <c r="D26" s="57">
         <f>D25+D22</f>
-        <v>1024250</v>
+        <v>0</v>
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="57">
         <f>F25+F22</f>
-        <v>1370000</v>
+        <v>0</v>
       </c>
       <c r="G26" s="31"/>
       <c r="H26" s="57">
         <f t="shared" si="2"/>
-        <v>345750</v>
+        <v>0</v>
       </c>
       <c r="I26" s="42"/>
-      <c r="J26" s="58">
+      <c r="J26" s="58" t="str">
         <f>IFERROR(F26/D26-1,"N/A")</f>
-        <v>0.3375640712716621</v>
+        <v>N/A</v>
       </c>
       <c r="K26" s="26"/>
-      <c r="L26" s="25" t="s">
-        <v>17</v>
-      </c>
+      <c r="L26" s="25"/>
       <c r="M26" s="26"/>
       <c r="N26" s="26"/>
       <c r="O26" s="26"/>
@@ -2137,33 +2070,24 @@
       <c r="I28" s="3"/>
       <c r="J28" s="59"/>
     </row>
-    <row r="29" spans="2:16" s="19" customFormat="1" ht="18">
-      <c r="B29" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="29">
-        <v>845750</v>
-      </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="29">
-        <f>D29+157875</f>
-        <v>1003625</v>
-      </c>
+    <row r="29" spans="2:16" s="19" customFormat="1">
+      <c r="B29" s="74"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="76"/>
       <c r="G29" s="30"/>
       <c r="H29" s="46">
         <f t="shared" si="2"/>
-        <v>157875</v>
+        <v>0</v>
       </c>
       <c r="I29" s="30"/>
-      <c r="J29" s="59">
+      <c r="J29" s="59" t="str">
         <f>IFERROR(F29/D29-1,"N/A")</f>
-        <v>0.18666863730416794</v>
+        <v>N/A</v>
       </c>
       <c r="K29" s="25"/>
-      <c r="L29" s="27" t="s">
-        <v>58</v>
-      </c>
+      <c r="L29" s="27"/>
       <c r="M29" s="33"/>
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
@@ -2192,9 +2116,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="K30" s="25"/>
-      <c r="L30" s="25" t="s">
-        <v>58</v>
-      </c>
+      <c r="L30" s="25"/>
       <c r="M30" s="25"/>
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
@@ -2207,27 +2129,25 @@
       <c r="C31" s="50"/>
       <c r="D31" s="69">
         <f>D30+D29</f>
-        <v>920750</v>
+        <v>75000</v>
       </c>
       <c r="E31" s="31"/>
       <c r="F31" s="69">
         <f>F30+F29</f>
-        <v>1088625</v>
+        <v>85000</v>
       </c>
       <c r="G31" s="31"/>
       <c r="H31" s="69">
         <f t="shared" si="2"/>
-        <v>167875</v>
+        <v>10000</v>
       </c>
       <c r="I31" s="42"/>
       <c r="J31" s="70">
         <f>IFERROR(F31/D31-1,"N/A")</f>
-        <v>0.18232419223459129</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="K31" s="26"/>
-      <c r="L31" s="25" t="s">
-        <v>58</v>
-      </c>
+      <c r="L31" s="25"/>
       <c r="M31" s="26"/>
       <c r="N31" s="26"/>
       <c r="O31" s="26"/>
@@ -2240,27 +2160,25 @@
       <c r="C32" s="50"/>
       <c r="D32" s="72">
         <f>D31+D26</f>
-        <v>1945000</v>
+        <v>75000</v>
       </c>
       <c r="E32" s="31"/>
       <c r="F32" s="72">
         <f>F31+F26</f>
-        <v>2458625</v>
+        <v>85000</v>
       </c>
       <c r="G32" s="31"/>
       <c r="H32" s="72">
         <f t="shared" si="2"/>
-        <v>513625</v>
+        <v>10000</v>
       </c>
       <c r="I32" s="42"/>
       <c r="J32" s="73">
         <f>IFERROR(F32/D32-1,"N/A")</f>
-        <v>0.26407455012853465</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="K32" s="26"/>
-      <c r="L32" s="25" t="s">
-        <v>17</v>
-      </c>
+      <c r="L32" s="25"/>
       <c r="M32" s="26"/>
       <c r="N32" s="26"/>
       <c r="O32" s="26"/>
@@ -2289,7 +2207,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="37" t="str">
         <f>IFERROR(IF(F32=F16,"Yes the balance sheet balances.","No the balance sheet doesn't balance"),"No the balance sheet doesn't balance")</f>
-        <v>Yes the balance sheet balances.</v>
+        <v>No the balance sheet doesn't balance</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="24"/>
@@ -2323,11 +2241,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:P35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="139" zoomScaleNormal="192" zoomScalePageLayoutView="192" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="139" zoomScaleNormal="192" zoomScalePageLayoutView="192" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -2350,13 +2268,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
       <c r="I1" s="3"/>
@@ -2418,7 +2336,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="45"/>
-      <c r="D5" s="74">
+      <c r="D5" s="77">
         <v>600000</v>
       </c>
       <c r="E5" s="3"/>
@@ -2447,7 +2365,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="74">
+      <c r="D6" s="77">
         <v>900000</v>
       </c>
       <c r="E6" s="30"/>
@@ -2470,7 +2388,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="45"/>
-      <c r="D7" s="74">
+      <c r="D7" s="77">
         <v>230000</v>
       </c>
       <c r="E7" s="30"/>
@@ -2499,7 +2417,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="45"/>
-      <c r="D8" s="74">
+      <c r="D8" s="77">
         <v>45000</v>
       </c>
       <c r="E8" s="30"/>
@@ -2528,7 +2446,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="50"/>
-      <c r="D9" s="75">
+      <c r="D9" s="78">
         <f>SUM(D5:D8)</f>
         <v>1775000</v>
       </c>
@@ -2557,7 +2475,7 @@
     <row r="10" spans="2:16">
       <c r="B10" s="15"/>
       <c r="C10" s="45"/>
-      <c r="D10" s="74"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="30"/>
       <c r="F10" s="46"/>
       <c r="G10" s="30"/>
@@ -2570,7 +2488,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="45"/>
-      <c r="D11" s="76"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="3"/>
       <c r="F11" s="53"/>
       <c r="G11" s="3"/>
@@ -2583,7 +2501,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="45"/>
-      <c r="D12" s="74">
+      <c r="D12" s="77">
         <v>95000</v>
       </c>
       <c r="E12" s="30"/>
@@ -2612,7 +2530,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="45"/>
-      <c r="D13" s="74">
+      <c r="D13" s="77">
         <v>25000</v>
       </c>
       <c r="E13" s="30"/>
@@ -2642,7 +2560,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="74">
+      <c r="D14" s="77">
         <v>50000</v>
       </c>
       <c r="E14" s="30"/>
@@ -2672,7 +2590,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="50"/>
-      <c r="D15" s="75">
+      <c r="D15" s="78">
         <f>SUM(D12:D14)</f>
         <v>170000</v>
       </c>
@@ -2703,7 +2621,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="50"/>
-      <c r="D16" s="77">
+      <c r="D16" s="80">
         <f>D9+D15</f>
         <v>1945000</v>
       </c>
@@ -2732,7 +2650,7 @@
     <row r="17" spans="2:16" ht="19" customHeight="1" thickTop="1">
       <c r="B17" s="20"/>
       <c r="C17" s="45"/>
-      <c r="D17" s="74"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="30"/>
       <c r="F17" s="46"/>
       <c r="G17" s="30"/>
@@ -2745,7 +2663,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="45"/>
-      <c r="D18" s="74"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="30"/>
       <c r="F18" s="46"/>
       <c r="G18" s="30"/>
@@ -2758,7 +2676,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="45"/>
-      <c r="D19" s="76"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="3"/>
       <c r="F19" s="53"/>
       <c r="G19" s="3"/>
@@ -2771,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="45"/>
-      <c r="D20" s="74">
+      <c r="D20" s="77">
         <v>35000</v>
       </c>
       <c r="E20" s="30"/>
@@ -2800,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="45"/>
-      <c r="D21" s="74">
+      <c r="D21" s="77">
         <v>89250</v>
       </c>
       <c r="E21" s="30"/>
@@ -2829,7 +2747,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="50"/>
-      <c r="D22" s="75">
+      <c r="D22" s="78">
         <f>D21+D20</f>
         <v>124250</v>
       </c>
@@ -2858,7 +2776,7 @@
     <row r="23" spans="2:16" s="17" customFormat="1">
       <c r="B23" s="62"/>
       <c r="C23" s="50"/>
-      <c r="D23" s="78"/>
+      <c r="D23" s="81"/>
       <c r="E23" s="31"/>
       <c r="F23" s="63"/>
       <c r="G23" s="31"/>
@@ -2877,7 +2795,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="45"/>
-      <c r="D24" s="76"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="3"/>
       <c r="F24" s="53"/>
       <c r="G24" s="3"/>
@@ -2890,7 +2808,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="45"/>
-      <c r="D25" s="74">
+      <c r="D25" s="77">
         <v>900000</v>
       </c>
       <c r="E25" s="30"/>
@@ -2919,7 +2837,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="50"/>
-      <c r="D26" s="77">
+      <c r="D26" s="80">
         <f>D25+D22</f>
         <v>1024250</v>
       </c>
@@ -2948,7 +2866,7 @@
     <row r="27" spans="2:16" ht="17" thickTop="1">
       <c r="B27" s="15"/>
       <c r="C27" s="45"/>
-      <c r="D27" s="74"/>
+      <c r="D27" s="77"/>
       <c r="E27" s="30"/>
       <c r="F27" s="46"/>
       <c r="G27" s="30"/>
@@ -2961,7 +2879,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="45"/>
-      <c r="D28" s="74"/>
+      <c r="D28" s="77"/>
       <c r="E28" s="30"/>
       <c r="F28" s="46"/>
       <c r="G28" s="30"/>
@@ -2974,7 +2892,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="45"/>
-      <c r="D29" s="74">
+      <c r="D29" s="77">
         <v>845750</v>
       </c>
       <c r="E29" s="30"/>
@@ -3008,7 +2926,7 @@
         <v>48</v>
       </c>
       <c r="C30" s="45"/>
-      <c r="D30" s="74">
+      <c r="D30" s="77">
         <v>75000</v>
       </c>
       <c r="E30" s="30"/>
@@ -3039,7 +2957,7 @@
         <v>49</v>
       </c>
       <c r="C31" s="50"/>
-      <c r="D31" s="79">
+      <c r="D31" s="82">
         <f>D30+D29</f>
         <v>920750</v>
       </c>
@@ -3070,7 +2988,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="50"/>
-      <c r="D32" s="80">
+      <c r="D32" s="83">
         <f>D31+D26</f>
         <v>1945000</v>
       </c>
